--- a/PESO/Importaciones por Lugar de Salida 2017 - Mensual - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2017 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2017\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{167BDD86-958D-49A3-B5D6-396B30351FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF64EC7-A76B-4474-BAA6-4B216D896207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpoLugarIngreso Peso" sheetId="2" r:id="rId1"/>
@@ -358,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -399,11 +399,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -422,15 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,11 +531,387 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,6 +922,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC84A515-9BF1-45F7-A7F7-7FD36D55E74F}" name="imp_salida_2017" displayName="imp_salida_2017" ref="A1:M59" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M59" xr:uid="{4960CB30-1B05-47B4-83EB-1E53F90CA653}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F359AA9A-CD8C-4C4F-929E-B0EA3B87E5F6}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B33053FF-AD8B-4536-83B7-823957DD7AA5}" name="Enero - 2017" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{19D84252-0512-49A6-8F49-3D84B712F619}" name="Febrero - 2017" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{DC304752-3CA5-4788-8CCA-F94F3AFAA201}" name="Marzo - 2017" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{58DE072F-2F09-40B5-B14B-A142D9667078}" name="Abril - 2017" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{51D9ACBB-6BC9-471A-A56A-EB25001B2F50}" name="Mayo - 2017" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3A8C1497-9CBF-4E0F-AFED-3C0A84301E36}" name="Junio - 2017" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{35A39F31-F51C-4E3D-949D-63D960C84F73}" name="Julio - 2017" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{37153B9C-5779-46FA-80E2-8C25A39445B7}" name="Agosto - 2017" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{FDBB722C-63DE-46A5-BAE5-F8087E3CE7BA}" name="Septiembre - 2017" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0639A5A1-7BB7-4711-8699-C3F04DF9C1A8}" name="Octubre - 2017" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E501F086-7F89-422E-9EF6-60146A36186B}" name="Noviembre - 2017" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{9B2F1D3C-E7CE-4FB0-8FA4-795A7CD23CE0}" name="Diciembre - 2017" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,42 +1232,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -826,7 +1311,7 @@
       <c r="N4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -3444,2440 +3929,2443 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.88671875" style="2" customWidth="1"/>
     <col min="2" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
         <v>3329.26</v>
       </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
         <v>4.68</v>
       </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17">
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
         <v>4065</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <v>8958929.299999997</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>8830573.0699999984</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>10167865.5</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>8913144.3099999987</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>9606597.4700000007</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>10030419.499999998</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>9820633.1700000018</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>11052128.879999999</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>9482503.2299999986</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>10962602.800000001</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <v>11953365.750000002</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="18">
         <v>10257241.439999996</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>5</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>234.4</v>
       </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>70.900000000000006</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>1465.8</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>3108.8</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>1129.8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>728.1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>1338.1000000000001</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>1340.46</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>366.71</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>1617.1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <v>31253.81</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="12">
         <v>129940.48</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="12">
         <v>2081.1</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="18">
         <v>1500.8999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>53</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>1331.75</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>431.70000000000005</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>1936.8000000000002</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>1008.9</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>1008.8</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="12">
         <v>605.35</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>3387.56</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>250.15</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>233.2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="12">
         <v>166.3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <v>1642.9</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="18">
         <v>1476.07</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
         <v>16</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>46</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>343</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
         <v>604</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="18">
         <v>133.69999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>320</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>3381.94</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="12">
         <v>459.38</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <v>152.5</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>73557886.719999999</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>48944325.869999997</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <v>52822363.86999999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <v>45953814.930000007</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <v>61203789.43</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="12">
         <v>51587496.039999999</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="12">
         <v>53837854.600000001</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="12">
         <v>42012828.699999996</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="12">
         <v>60853483.470000006</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="12">
         <v>59171459.859999999</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="12">
         <v>76379092.75999999</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="18">
         <v>48167100.210000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>21540542.750000004</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>19655706.059999999</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="12">
         <v>19762850.329999998</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <v>18113208.43</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <v>33436037.849999998</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="12">
         <v>22045424.729999997</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <v>17758991.09</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="12">
         <v>32801315.739999998</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="12">
         <v>21915079.109999999</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="12">
         <v>27520708.819999997</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="12">
         <v>28607637.340000004</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="18">
         <v>26749147.93</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
         <v>23038</v>
       </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>25150</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
         <v>4000</v>
       </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
         <v>2000</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
         <v>4456588</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="12">
         <v>15324307</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="12">
         <v>9406456</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="12">
         <v>26117443</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="18">
         <v>20000000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
         <v>46200000</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
         <v>10607515</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>54852640</v>
       </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>12703950</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="12">
         <v>48215440</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="12">
         <v>1381740</v>
       </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12">
         <v>102545059</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <v>29366149.739999998</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>26724874.120000001</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="12">
         <v>26144541.32</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>20711677.670000002</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>17718685.600000001</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="12">
         <v>32040285</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <v>26057861.690000001</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="12">
         <v>28848640.309999999</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="12">
         <v>32977369.170000002</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="12">
         <v>20315518.289999999</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="12">
         <v>33088320.539999999</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="18">
         <v>30088922.640000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>2003592.22</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>1477388.34</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <v>2710943.31</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>2148735.2000000002</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>1787992.2000000002</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="12">
         <v>2186589.13</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="12">
         <v>1993450.11</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="12">
         <v>1728932.39</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <v>2390214.8200000003</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="12">
         <v>3038121.89</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="12">
         <v>2291502.8199999998</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="18">
         <v>2298567.9500000002</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>66506.91</v>
       </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
         <v>1850</v>
       </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
         <v>13600</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="12">
         <v>8157.68</v>
       </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
         <v>1719</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="12">
         <v>16150.5</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="12">
         <v>28812</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <v>132635.79999999999</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="12">
         <v>194774.3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>315637.65000000002</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>3592534.5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="12">
         <v>5321030</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <v>5631387.7999999998</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="12">
         <v>12418473.699999999</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="12">
         <v>212314.23999999999</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="12">
         <v>7827191.0599999996</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="12">
         <v>2104142.5</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="18">
         <v>6734340</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <v>11883409</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="12">
         <v>20425978</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="12">
         <v>32964868.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>27360995.5</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <v>12512547</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="12">
         <v>18052317</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="12">
         <v>30253519</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="12">
         <v>36453013.159999996</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="12">
         <v>31052680</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="12">
         <v>23772481</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="12">
         <v>16421115</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="18">
         <v>9831798</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
         <v>30240</v>
       </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="12">
         <v>75131</v>
       </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
         <v>25200</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <v>25200</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <v>75470</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="12">
         <v>3237.79</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="12">
         <v>77885.38</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="12">
         <v>182911.4</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="12">
         <v>85340</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="12">
         <v>27410</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="12">
         <v>63161.29</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="18">
         <v>24642</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="12">
         <v>269000</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>170240</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="12">
         <v>278580</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <v>270060</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>244080</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="12">
         <v>128740</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="12">
         <v>220000</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="12">
         <v>274900</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="12">
         <v>192180</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="12">
         <v>163410</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="12">
         <v>299401.07</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="18">
         <v>218010</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="12">
         <v>2956666</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="12">
         <v>3325067</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="12">
         <v>23049881.100000001</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <v>1750000</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="12">
         <v>7624308</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="12">
         <v>85620</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="12">
         <v>9450775</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="12">
         <v>26070226</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="12">
         <v>5617346</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="12">
         <v>10784521</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="12">
         <v>14148920</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="18">
         <v>4345679</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="12">
         <v>276438280.74000001</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>186870758.04000005</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="12">
         <v>230409232.84999999</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <v>327320874.06999999</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="12">
         <v>232555989.65000001</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="12">
         <v>261071864.56999999</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="12">
         <v>194382856.72</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="12">
         <v>368097225.64000005</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="12">
         <v>279520420.02000004</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="12">
         <v>228991949.49000001</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="12">
         <v>56535860.550000004</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="18">
         <v>277533941.06</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
         <v>12000</v>
       </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="17">
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
         <v>51590</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
         <v>4600</v>
       </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17">
-        <v>0</v>
-      </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="17">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="12">
         <v>6609695</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="12">
         <v>4934207.07</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="12">
         <v>2436262</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <v>2299969</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <v>7768856</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="12">
         <v>6091928</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <v>8852679</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <v>4899467</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="12">
         <v>2096610</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="12">
         <v>2058470</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="12">
         <v>5039505</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="18">
         <v>2740972</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="17">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
         <v>20</v>
       </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="12">
         <v>7361468.4000000004</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="12">
         <v>142659800</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="12">
         <v>59678100</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <v>182474271</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <v>110848300</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <v>69325725</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <v>4049832</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <v>221937367.84</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="12">
         <v>67884578</v>
       </c>
-      <c r="K29" s="17">
-        <v>0</v>
-      </c>
-      <c r="L29" s="17">
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
         <v>56947000</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="18">
         <v>166244140.59</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="12">
         <v>1170450</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="12">
         <v>1102980</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="12">
         <v>884840</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="12">
         <v>263560</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12">
         <v>46500</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="12">
         <v>257420</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="12">
         <v>191850</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="12">
         <v>265060</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="18">
         <v>88420</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="12">
         <v>14690895.279999999</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="12">
         <v>12537221.370000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="12">
         <v>12479151.840000002</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <v>14271447.07</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="12">
         <v>15621887.779999997</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <v>12657822.639999999</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <v>9495971.3499999978</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <v>23595839.430000003</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="12">
         <v>17602525.640000004</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="12">
         <v>15274864.979999999</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="12">
         <v>18830370.07</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="18">
         <v>10084571.349999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="12">
         <v>6253</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="12">
         <v>426.72</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="12">
         <v>7678</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <v>1781.5</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <v>1322</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <v>6252</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="12">
         <v>797</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <v>1434</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="12">
         <v>3048</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="12">
         <v>6605</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="12">
         <v>5386</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="18">
         <v>6370.5</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
-      <c r="D33" s="17">
+      <c r="B33" s="12">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
         <v>563</v>
       </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
         <v>2.67</v>
       </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="12">
         <v>39567989.780000001</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="12">
         <v>41176313.380000003</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="12">
         <v>38309780.159999996</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <v>87735249.660000011</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="12">
         <v>51137792.189999998</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="12">
         <v>68903849.25</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="12">
         <v>53256666.199999996</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="12">
         <v>137283790.84999999</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="12">
         <v>53667173.710000008</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="12">
         <v>23083951.649999999</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="12">
         <v>37700900.600000001</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="18">
         <v>24442449.419999998</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="12">
         <v>4443040.59</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="12">
         <v>4764344.7299999995</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="12">
         <v>5029906.9799999995</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <v>3312753.79</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <v>5416153.4499999993</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="12">
         <v>4581218.9800000004</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <v>4374690.42</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <v>4968938.18</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="12">
         <v>3660014.55</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <v>4139137.31</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="12">
         <v>5065848.2700000005</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="18">
         <v>2074988.5699999998</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="17">
-        <v>0</v>
-      </c>
-      <c r="C36" s="17">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
         <v>20888</v>
       </c>
-      <c r="J36" s="17">
-        <v>0</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
         <v>1.2</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="12">
         <v>94</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="12">
         <v>471732737.98000002</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="12">
         <v>479967117.94</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="12">
         <v>524355937.43000001</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <v>491385789.10000002</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="12">
         <v>569919007.28999996</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="12">
         <v>558836714.66000009</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="12">
         <v>501062004.58999997</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="12">
         <v>768378083.17999995</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="12">
         <v>454059503.61000001</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="12">
         <v>693404092.2700001</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="12">
         <v>467131054.26999992</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="18">
         <v>452294934.01999998</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="12">
         <v>24461455</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="12">
         <v>13429540</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="12">
         <v>19725617</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <v>30356278</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <v>14947997</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <v>13494813</v>
       </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0</v>
-      </c>
-      <c r="K38" s="17">
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
         <v>683176</v>
       </c>
-      <c r="L38" s="17">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17">
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
         <v>9057</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="17">
-        <v>0</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
         <v>86380</v>
       </c>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
-        <v>0</v>
-      </c>
-      <c r="J39" s="17">
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
         <v>519380</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="12">
         <v>63749</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="12">
         <v>95734</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="17">
-        <v>0</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12">
         <v>55200</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
         <v>27955.200000000001</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="12">
         <v>291595.92</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="12">
         <v>89400</v>
       </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
-        <v>0</v>
-      </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="12">
         <v>806665.17</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="12">
         <v>302384</v>
       </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
         <v>300995</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="12">
         <v>195942</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="12">
         <v>198435</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="12">
         <v>392533</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="12">
         <v>4060</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="12">
         <v>340349</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="12">
         <v>154000</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="12">
         <v>148574</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="18">
         <v>568092</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="12">
         <v>3182906.3</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="12">
         <v>3822978.69</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="12">
         <v>3299294.44</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="12">
         <v>4639313.6100000003</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="12">
         <v>2758966.21</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="12">
         <v>2310768.38</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="12">
         <v>2588682.9499999997</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="12">
         <v>3730589.61</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="12">
         <v>3012821.18</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="12">
         <v>2135269.8600000003</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="12">
         <v>3175120.78</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="18">
         <v>2280602.7599999998</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="12">
         <v>47093970</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="12">
         <v>5280510</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="12">
         <v>44571450</v>
       </c>
-      <c r="E43" s="17">
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
         <v>49364000</v>
       </c>
-      <c r="G43" s="17">
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
         <v>5047840</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="12">
         <v>46668600</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="12">
         <v>5340960</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="12">
         <v>44202600</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="12">
         <v>5946610</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="12">
         <v>18854698</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="12">
         <v>24572</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="12">
         <v>6428</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <v>43094268</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="12">
         <v>45401622</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="12">
         <v>23590170</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <v>17013350</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="12">
         <v>23523820</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="12">
         <v>59996040</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="12">
         <v>32072240</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="12">
         <v>20246210</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="18">
         <v>7097897</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="12">
         <v>35640090.490000002</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="12">
         <v>33243887.969999999</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="12">
         <v>40763549.740000002</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <v>35020522.399999999</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="12">
         <v>26861584.019999996</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <v>21249860.169999998</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <v>19016801.829999998</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <v>27900877.009999998</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="12">
         <v>32268922.189999998</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="12">
         <v>35120026.770000003</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="12">
         <v>31480816.240000002</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="18">
         <v>28572910.84</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="12">
         <v>77034002.829999998</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="12">
         <v>72292730.629999995</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="12">
         <v>104195123.84999999</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <v>81409827.01000002</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="12">
         <v>222009535.99000001</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="12">
         <v>138795937.60999998</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="12">
         <v>143380440.26999998</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <v>154483543.24000001</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="12">
         <v>263559649.57999998</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="12">
         <v>179937112.28</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="12">
         <v>131381162.40000001</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="18">
         <v>175291796.62</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="12">
         <v>35107393.200000003</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="12">
         <v>37536354.600000001</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="12">
         <v>43465760.100000001</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <v>62175917.299999997</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="12">
         <v>29288516</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="12">
         <v>64828835</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <v>68702017</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="12">
         <v>31690082</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="12">
         <v>33819777.599999994</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="12">
         <v>52243327.810000002</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="12">
         <v>53049808.5</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="18">
         <v>76108886</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="12">
         <v>265112.2</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="12">
         <v>9518813.5600000005</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="12">
         <v>113551.25</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="12">
         <v>303556.88</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="12">
         <v>289789.21999999997</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="12">
         <v>203970.31999999998</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="12">
         <v>439586.19</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="12">
         <v>290313.11</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="12">
         <v>391318.83</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="12">
         <v>787176.04999999993</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="12">
         <v>1633893.45</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="18">
         <v>919965.45000000007</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="12">
         <v>849341387.31999993</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="12">
         <v>754917135.52999997</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="12">
         <v>918107641.26999998</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="12">
         <v>763983030.86000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="12">
         <v>849764288.31999993</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="12">
         <v>1150198966.3799999</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="12">
         <v>657073493.03999996</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="12">
         <v>1162752100.5599999</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="12">
         <v>631331383.71000004</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="12">
         <v>836054274.25</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="12">
         <v>769565120.03999996</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="18">
         <v>824946053.98000002</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="12">
         <v>797580868.00000024</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="12">
         <v>816334800.18000019</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="12">
         <v>862934185.87000024</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <v>625701874.46000016</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="12">
         <v>641173602.73000014</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="12">
         <v>736935377.48000002</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <v>877278258.65999997</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="12">
         <v>1030892707.0700002</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="12">
         <v>865594126.67999983</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="12">
         <v>836773756.50999987</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="12">
         <v>959085835.06000006</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="18">
         <v>909596000.18999994</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="17">
-        <v>0</v>
-      </c>
-      <c r="C51" s="17">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="B51" s="12">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
         <v>2620.41</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
         <v>9691.91</v>
       </c>
-      <c r="J51" s="17">
-        <v>0</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
         <v>2010</v>
       </c>
-      <c r="L51" s="17">
-        <v>0</v>
-      </c>
-      <c r="M51" s="17">
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
         <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="12">
         <v>60240</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="12">
         <v>48780</v>
       </c>
-      <c r="D52" s="17">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
         <v>30120</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <v>58718.6</v>
       </c>
-      <c r="G52" s="17">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17">
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
         <v>28200</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="12">
         <v>90360</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="12">
         <v>90360</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="12">
         <v>150600</v>
       </c>
-      <c r="L52" s="17">
-        <v>0</v>
-      </c>
-      <c r="M52" s="17">
+      <c r="L52" s="12">
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
         <v>30120</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="17">
-        <v>0</v>
-      </c>
-      <c r="C53" s="17">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
-        <v>0</v>
-      </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <v>0</v>
-      </c>
-      <c r="K53" s="17">
-        <v>0</v>
-      </c>
-      <c r="L53" s="17">
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
         <v>46541</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="18">
         <v>31079</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="12">
         <v>740591337.28999996</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="12">
         <v>605309788.92999995</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="12">
         <v>863582867.5200001</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="12">
         <v>324839066.46999997</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="12">
         <v>291811663.62</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="12">
         <v>203716239.02999997</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="12">
         <v>283012816.17000002</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="12">
         <v>229767171.37000003</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="12">
         <v>247990718.16999999</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="12">
         <v>146538393.85999998</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="12">
         <v>212840250.69999999</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="18">
         <v>429762290.71000004</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="12">
         <v>181705</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="12">
         <v>122493087.16</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="12">
         <v>37684185.299999997</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="12">
         <v>191044780.5</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <v>354337548.63999999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="12">
         <v>641601451.71000004</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <v>502771937.39999998</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="12">
         <v>406578407</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="12">
         <v>404467256.75999999</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="12">
         <v>562680099.39999998</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="12">
         <v>463148991.89999998</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="18">
         <v>451117764.5</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="12">
         <v>59772900</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="12">
         <v>76510000</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="12">
         <v>154231610</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="12">
         <v>122037290</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="12">
         <v>123388898</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="12">
         <v>95621855</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="12">
         <v>143522600</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="12">
         <v>80162497</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="12">
         <v>115344024</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="12">
         <v>242762529</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="12">
         <v>181878000</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="18">
         <v>71277900</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="12">
         <v>423003689.34000027</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="12">
         <v>313867667.5999999</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="12">
         <v>381986409.57999992</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="12">
         <v>452885239.17999995</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="12">
         <v>471056350.83000016</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="12">
         <v>393013505.69000018</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="12">
         <v>417739550.31000024</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="12">
         <v>416538908.81999993</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="12">
         <v>465690597.61999995</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="12">
         <v>429170330.77999991</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="12">
         <v>2195126170.4499998</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="18">
         <v>364256799.96000004</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="12">
         <v>309910032</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="12">
         <v>246937035</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="12">
         <v>313071120</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="12">
         <v>205872738.13999999</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="12">
         <v>257299256</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="12">
         <v>276582038</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="12">
         <v>301722551</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="12">
         <v>259968221</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="12">
         <v>195968061.93000001</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="12">
         <v>205607729</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="12">
         <v>216984960</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="18">
         <v>167300165</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="25">
         <v>243791534.80000001</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="25">
         <v>223470401.90000001</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="25">
         <v>314873431.80000001</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="25">
         <v>204389464.5</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="25">
         <v>234438023.59999999</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="25">
         <v>216267897.59999999</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="25">
         <v>229021330.90000001</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="25">
         <v>331274262.69999999</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="25">
         <v>411195681.30000001</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="25">
         <v>574003451.20000005</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="25">
         <v>421913139.19999999</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="26">
         <v>325210970.80000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>